--- a/500all/speech_level/speeches_CHRG-114hhrg98282.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98282.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order. Without objection, the Chair is authorized to declare a recess of the Committee at any time.    Thank you all for being here. The first clause of Article I, Section VII of the Constitution provides that, ``all bills for raising revenue shall originate in the House of Representatives, but the Senate may propose or concur with amendments as on other bills.'' This clause, commonly referred to as the Origination Clause, was designed by the Constitution's Framers to bring the power to tax closer to the people by giving control over initiating revenue legislation to their immediate Representatives, Members of the House of Representatives, who are elected every 2 years. The Framers' viewed the Origination Clause as a critical protection against government abuses and the creation of an aristocracy in America.    The power to tax is one of the most fundamental operations of a sovereign and one of the most dangerous to liberty. As Chief Justice John Marshall famously observed, the power to tax involves the power to destroy.    Simply put, the Origination Clause, the origination of revenue bills is not a small matter or marginal issue. Indeed, the need for a just tax system was the moral justification for our entire War of Independence. Its importance was expressed through the Virginia House of Burgesses, the Stamp Act Congress, and the First Continental Congress, all of whom petitioned the Crown and the Parliament in England for redress of their tax grievances.    It was with these realities in mind that the Origination Clause of our Constitution was written. The clause was, according to Massachusetts convention delegate Elbridge Gerry, ``the cornerstone of the accommodation'' of the Great Compromise of 1787. Thus, without the Origination Clause at the core of the Great Compromise, the Constitution as we know it today would not have come into being.    When the Framers wrote the Constitution, they knew it was vital that the power to raise and levy taxes originate in the people's House whose Members are closest to the electorate with 2-year terms rather than in the Senate whose Members sit unchallenged for 6-year terms. The Senate also does not proportionally represent the American population, and they already enjoy their own and unique and separate Senate powers granted to them in the Constitution.    As George Mason observed during the debate in the Constitutional Convention, ``Should the Senate have the power of giving away the people's money, they might soon forget the source from whence they received it. We might soon have an aristocracy.''    I have called today's hearing to examine the roots of the Origination Clause, its original meaning and purpose, and to see where the Origination Clause stands today after 225 years after the Great Compromise. I am concerned that over time the original meaning of the clause has been set aside, and the protections the clause affords to American taxpayers have been severely eroded. Instead of a robust check on the Federal Government over the people, I am troubled that the clause has become a mere formality in practice, a formality that may be dispensed with as easily as the Senate taking any bill that originated in the House and striking the entire text of the bill and replacing it with a ``bill for raising revenue no matter how nongermane the Senate's amendment is to the House original passed measure.'' A glaring example would be when the Senate struck everything but the bill number in the ACA legislation, which was a completely nongermane bill, and inserted the entire Affordable Care Act, which the Supreme Court later specifically designated as a tax since it raised 17 different taxes and was, in fact, the largest tax increase in the history of the Republic.    This sort of procedure blatantly ignores the Framers' intent, and if allowed to stand, it renders the Origination Clause of our Constitution a dead letter. We await with great concern the Supreme Court's decision as to whether they will allow that to happen as they ponder the review of the case on this topic, Sissel v. HHS.    Enforcing the Origination Clause is of critical concern to this House and especially this Constitution Subcommittee. If we as Members of the House who took a solemn oath to support and defend the Constitution, including its Origination Clause, fail to defend this right and responsibility as the immediate Representatives of the people and those most accountable to them, we dishonor and fundamentally abrogate our sworn oath to support and defend the Constitution of the United States from all enemies, foreign and domestic.    I thank the witnesses for their testimony and yield to the Ranking Member, Mr. Cohen, for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair.    Last night was a great opportunity to hear the President's last State of the Union speech. Unfortunately, it will be his last, but it was probably his greatest, inspiring us as to what we as Americans should be doing to move our country forward, inspire our citizens, and protect them against fears being generated and concerns. And he reiterated the importance of the Affordable Care Act and how much good it has done and how well-received it has been. But, once again, in this Committee, I have to play the Bill Murray role. It's Groundhog's Day early.    This hearing on The Original Meaning of the Origination Clause is a repeat of a hearing we had 2 years ago, almost 2 years ago. And we have the same majority witnesses before us, so they're getting their act down. That's good. They've got a second act. But even though they have a second act, in court, they're 0 for 3. In the NBA you'd be sent down to the developmental league, but, no, you're still here in the major leagues, even though you're 0 for 3.    It appears no Federal judge has so far considered the merits of this latest attack on the Patient Protection and Affordable Care Act. The Origination Clause, attorneys can argue about anything and everything. I'm an attorney, and you can hire me for either side, and I can charge. It's a great deal. But the reality is the Origination Clause ensures that the House--important--people's House, has the first say when it comes to bills raising revenue, and it's the Chamber most closest to the people. But at the same time, it's the same Chamber that it was when the Origination Clause was drafted because at that time, of course, the Senate was made up of folks that could get the votes of the State legislatures. And they were the States' guys, and they got picked by--sometimes it was the Governor; sometimes it might have been the Speaker of the House--but basically they weren't elected by the people, and they were chosen by just general assembly. Now they're elected. So it's kind of a different game.    We have an evolving Constitution, and we change and we don't go back to what somebody necessarily said because things change, but the Constitution reflects political compromises made by the Framers to ensure competing interests of various States and regions were addressed, even though they changed when we elected the Senate. Foremost among these was the compromise of Congress itself, and it gave the House a little more emphasis because it was the people's House, and the Senators were the boss' House, so to speak.    The Origination Clause reflects that balance, and it gave the House ``exclusive authority to originate bills'' for raising revenue. That clause gave the Senate broad leeway to, ``propose or concur with amendments as on other bills.'' That balance has worked for two centuries, and the House prerogative to originate all bills relating to revenue is established and respected. At the same time, the Senate's authority to amend is established and respected.    The majority witnesses, however, believe the Origination Clause is in peril, and particularly, they allege that Congress did an end run around the Origination Clause when it passed the Affordable Care Act and, in particular, its individual mandate and the related shared responsibility payment.    As will be made more evident during our discussion today, neither the facts nor the law support that assertion. Sometimes you argue the facts. Sometimes you argue the law. Now you just kind of argue politics. While the Affordable Care Act is arguably not even a bill for raising revenue within the Origination Clause's meaning, even if the clause applied to the act, it is clear the act met the clause's requirements.    The vehicle for enacting what ultimately became the Affordable Care Act was a tax bill that originated in the House which the Senate then amended by substituting language of the Affordable Care Act. In so doing, the Senate clearly acted within its authority within the Origination Clause to propose or concur with amendments to a House revenue bill as on other bills.    I question the need for today's hearing when lower courts have already spoken and when the Supreme Court may be about to speak on this issue. This hearing serves little purpose other than to once again attack the Affordable Care Act, which the majority party has tried to repeal on 62 occasions and constantly failed, and I do enjoy the little engine that could, but that's kind of what we're experiencing here in Congress.    The ACA has allowed almost 18 million Americans to get health insurance, including more than 236,000 Tennesseans who have received health insurance through ACA's changes, establishing the lowest rate of uninsured in 50 years. It ended discrimination by insurers against those with preexisting conditions, including women, allowed young adults under 26 to remain covered by their parents' insurance, benefitting 2.3 million Americans, encouraged better, more efficient delivery of quality health care, and ensured that most premium dollars are spent on health care, not profits.    I was proud to have voted for the Affordable Care Act and proud to vote 62 times not to go into the political demagoguery of trying to repeal what is one of our Nation's best efforts at joining the rest of the industrialized and civilized Nations in having health care for its people, saying that you have a right to exist and a right to live, and we should let every citizen have that opportunity.    President Obama's signature achievement is one I am proud to have voted for and will strongly defend against all attacks, including those today in a Committee which I wish we were hearing voting rights; I wish we were hearing civil rights; I wish we were hearing opportunities to extend rights to people rather than taking health care away from them. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    I appreciate your holding this hearing. You know, listening to the remarks of the gentleman from Tennessee, I've been reading the 17th Amendment to the United States Constitution, in fact, rereading the 17th Amendment to the United States Constitution, which provided for the direct election of United States Senators, and I can't see anything in this amendment whatsoever that says that the interpretation of the Origination Clause, which is provided for with direct, clear language in the United States Constitution, is in any way changed by the 17th Amendment. So our Constitution doesn't evolve. It gets amended by specific black-letter language, and that language doesn't provide for any such change. And I would hope that regardless of what position people take on the substantive issues that come before the Congress, including health care and the Affordable Care Act, that people would not attempt to change the meaning of the Constitution in order to accomplish their current policy goals. The ends should not justify the means of surrendering power from the House to the United States Senate. This document has not evolved that power from the House to the Senate, and this Committee and this Congress, this House of Representatives, should do everything in its power to make sure that it does not evolve away from the people's House so that in the future, when we address issues that are important to Members of the House representing their constituents on either side of the aisle, that we do not find ourselves saying: Well, it's okay now. Let things start off in the United States Senate instead of in the House, even though the Constitution clearly provides for that.    The Origination Clause was the result of a contentious dispute at the Constitutional Convention between big States and small States over the structure and powers of the Federal Government. The less populated small States feared that the Senate, where each State would have equal representation--still does--would have little control over raising revenue. Indeed, all versions of the Origination Clause that prohibited the Senate from amending revenue-raising bills were vigorously opposed by small State delegates. On the other hand, the Framers understood the importance of keeping the power to tax close to the people. This dispute was ultimately resolved by providing the Senate with the power to propose or concur with amendments as on other bills.    Unfortunately, the exact scope of the Senate's power to amend House bills under this clause remains ambiguous today. I hope this hearing will help clarify the extent of the Senate's authority to propose or concur with amendments on revenue bills in addition to examining the original meaning of the term bills for raising revenue.    Nevertheless, it's clear that Members of the House of Representatives have a duty to safeguard its constitutional prerogative in order to protect individual liberty from the dangers of concentrated power, and that duty is distinct from the Senate. In Federalist 58, Madison stated: The House of Representatives can not only refuse, but they alone can propose the supplies requisite for the support of government. They, in a word, hold the purse, that powerful instrument by which we behold in the history of the British Constitution an infant and humble representation of the people gradually enlarging the sphere of its activity and importance and finally reducing, as far as it seems to have wished, all the overgrown prerogatives of the other branches of the government. This power over the purse may, in fact, be regarded as the most complete and effectual weapon with which any constitution can arm the immediate representatives of the people for obtaining a redress of every grievance and for carrying into effect every just and salutary measure.    It's clear from Madison that the Origination Clause was designed to be one of the many important constitutional tools that the House uses against the overgrown prerogatives of other branches of government or even the Senate. Therefore, it is important that we do not disregard this duty, and I thank our witnesses for coming, and I look forward to their testimony.    I yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -91,27 +82,18 @@
     <t xml:space="preserve">    Mr. Franks. And, without objection, other Members' opening statements will be made part of the record as well.    So now I will introduce our witnesses. Our first witness is Todd Gaziano. Mr. Gaziano is executive director of the D.C. Center and senior fellow in constitutional law at the Pacific Legal Foundation. Prior to joining Pacific Legal Foundation, he served in the Justice Department's Office of Legal Counsel, was chief Subcommittee counsel in the U.S. House of Representatives, and was the founding director of Heritage Foundation's Center for Legal and Judicial Studies. From early 2008 to December 2013, he served as an appointee of the House of Representatives on the U.S. Commission on Civil Rights.    Our second witness is Elizabeth Wydra. Ms. Wydra is Chief Counsel of the Constitutional Accountability Center. She frequently participates in Supreme Court litigation and has argued several important cases in the Federal courts of appeals. She was previously a supervising attorney and teaching fellow at the Georgetown University Law Center Appellate Litigation Clinic. After graduating from law school, she clerked for Judge James R. Browning of the U.S. Court of Appeals for the Ninth Circuit.    Our final witness is Paul Kamenar. Mr. Kamenar is a Washington, D.C., attorney who provides legal counsel on legal, regulatory, and public policy matters, and guest lectures at the U.S. Naval Academy on constitutional and national security law. He is also a senior fellow of the Administrative Conference of the United States and a member of its Committee on Judicial Review. Mr. Kamenar was formerly a clinical professor of Law at George Mason University Law School, an adjunct professor at Georgetown University Law Center, and senior executive counsel at the Washington Legal Foundation.    Now each of the witnesses' written statements will be entered into the record in its entirety, and I would ask each witness to summarize his or her testimony in 5 minutes or less. To help you stay within that time, there's a timing light in front of you. The light switch will switch from green to yellow, indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired.    Before I recognize the witness, it is the tradition of the Subcommittee that they be sworn. So if you'll stand to be sworn, please.    Will you raise your right hand?    Do you solemnly swear that the testimony you are about to give will be the truth, the whole truth and nothing but the truth, so help you God?    You may be seated. Let the record reflect that the witnesses answered in the affirmative. I want to welcome all of you here, and I now recognize our first witness, Mr. Gaziano, and please turn on that microphone before you start here.</t>
   </si>
   <si>
-    <t>Gaziano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gaziano. Chairman Franks, Chairman Goodlatte, and other distinguished Members of the Subcommittee, thank you for inviting me to testify again on this topic. I'm proud to be part of the Pacific Legal Foundation, which is representing Matt Sissel in his constitutional challenge to ObamaCare. This hearing and the Sissel case focus on the Framers' most important check on Congress' power to tax, which some today regard as an annoyance to be circumvented with clever tricks. There was similar disdain for the constitutional rules for legislation in the 1970's that led to over 161 House and Committee veto bills. Luckily, the Supreme Court understood that the legislative rules that were set forth in the Constitution protected individual rights and not just congressional prerogatives.    The Supreme Court in INS v. Chadha held that such finely wrought and exhaustively considered procedures for legislation could not be modified by modern designs and modern practices. The Court stressed that certain prescribed steps were still necessary to ``provide enduring checks on each branch and to protect the people from the improvident exercise of power.'' The Court then struck down all those 160 laws or provisions thereof to protect our individual liberty.    Well, I am delighted to be here today to testify on a similar protection of our individual liberty and to do so with Paul Kamenar, who I've worked with before, and with Elizabeth Wydra, who I believe has written about the best opposing view of anyone I've ever written. But as gifted a scholar as she is, even she can't defend the indefensible.    My friend does seem to concede in a written testimony that the D.C. Circuit's newly minted primary purpose test is invalid. The four-judge dissent in the D.C. Circuit warned that this new test would allow the Senate to originate taxes by simply characterizing them as having weightier nonrevenue purposes. For example, the Senate could enact and originate a gas tax in a bill that promotes the environment. The founding generation did not think they had erected an optional limitation so easily defeated with the right incantation.    Now turning to the text of the Origination Clause itself for its original meaning, it fails to satisfy the clause for two independent reasons. First, the Service Members Home Ownership Tax Act was not a bill for raising revenue within the meaning of the clause because it only cut taxes. Other provisions which increased penalties and accelerated filing fees to make it budget neutral were not taxes within the meaning. I will be glad to elaborate on that, but the result of that is that the Senate could not amend that bill at all with any additional taxes.    Second, and I think this goes more to Chairman Goodlatte's question, even if the House bill was a bill for raising revenue within the clause, the Senate healthcare bill was not a germane amendment and thus not constitutional. In Flint v. Stone Hill, the Supreme Court said that a Senate amendment must be germane to the revenue bill that originated in the House. It is irrelevant whether the Senate's practice allows any amendments on nonrevenue bills. There was a germaneness requirement in the Articles of Confederation Congress, and that helped form the original understanding of the Senate's limited role to amend a House revenue bill.    Second, the Senate's hotly disputed practice with regard to revenue bills in the late 19th century is almost completely worthless in determining the original public meaning of the clause, and it's especially ironic to rely on the Senate's views. It's like deferring to the foxes for the rules for raiding the henhouse.    And, finally, the Supreme Court's germaneness requirements, which have been followed by numerous courts, is absolutely required to properly give the Origination Clause any meaning whatsoever. If the Senate merely had to wait for a House revenue bill of some type and then could substitute a completely different omnibus tax code, which could happen several times a year, that would render the clause empty. Interpretations of clauses that render them meaningless are an insult to the framing generation and any rational basis of law.    I want to, since my time is limited, skip to one interpretation that Madison supposedly was quoted as saying that the Senate under the Origination Clause could gut and substitute a bill. That's kind of a minority view. It's very contrary to George Mason, most of the other Framers, and especially Story's interpretation that said that the Senate's amendment power would only be limited to a single line of text or a trifle to fix error. But even if Madison was right, that doesn't save ObamaCare because it might be constitutional in some cases to have a complete substitute language, but the bill still has to be--the Senate amendment still has to be germane to the House bill. And Madison didn't say otherwise, and no Framer said otherwise. If they had said otherwise, the Constitution would not have been ratified. There is simply no argument that the Senate's healthcare bill with its 20 historically large taxes is germane to the 6-page servicemembers housing bill. There is no constitutional precedent whatsoever for that position. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And thank you, sir.    I now recognize our second witness, Ms. Wydra, and make sure that microphone is on.</t>
   </si>
   <si>
-    <t>Wydra</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wydra. Good morning. Thank you, Chairman Franks, Ranking Member Cohen, and Members of the Subcommittee, for inviting me to testify today. It's a pleasure and an honor.    As the Chairman noted, the Origination Clause provides that all bills for raising revenue shall originate in the House of Representatives, but the Senate may propose or concur with amendments as on other bills. As the tax and history of the Constitution make clear, this provision was intended to strike a careful balance between the two Houses of Congress, giving the House the exclusive authority to propose legislation affecting the Nation's purse strings while ensuring that the Senate retained the right to amend such legislation, just as it could amend all other bills. This includes the strike-and-replace method of amendment used by the Senate in the ACA, as has been discussed, and more generally, since the founding. As Thomas Jefferson explained in his Manual of Parliamentary Procedure he wrote for the Senate in 1801, ``Amendments may be made so as to totally alter the nature of the proposition. A new bill may be engrafted by way of amendment on the words, be it enacted.'' Does the existence of the strike-and-replace amendment method of Senate amendment contemplated in the second half of the Origination Clause mean that the power given to the House in the first half of the Origination Clause to originate revenue bills has no meaning? Absolutely not. But don't take my word for it, even though I appreciate Mr. Gaziano's kind words.    Let's listen to James Madison. At Virginia's ratifying convention, he noted that even though critics said that the Senate could strike out every word of the bill except the word ``whereas'' or any other introductory word and might substitute words of their own, the clause nonetheless kept the Nation's purse strings in the hands of the House because the House was free to reject the Senate's amendments to revenue bills. And in the Federalist Papers, Madison emphasized the importance of the Origination Clause by noting that the House had the power to propose as well as refuse when it came to the power of the purse. The Origination Clause thus makes the House the first and the last word on all revenue bills.    Throughout history, the House has defended its constitutional prerogatives with vigor, mostly through the blue-slip process through which violations of the Origination Clause are raised and remedied.    My written testimony goes through in greater detail the original meaning of the Origination Clause, so for now, I will turn to the legal challenges claiming that the Affordable Care Act violates this clause. Every judge to have considered the merits of this claim on the merits has rejected it. As stated plainly by conservative superstar Judge Brett Kavanaugh of the D.C. Circuit Court of Appeals, the Affordable Care Act complied with the Origination Clause. As he went on to write: The act, in fact, originated in the House, as required by the clause in H.R. 3590, which was itself a bill to raise revenue, and although the original House bill was amended and its language replaced in the Senate, such Senate amendments are permissible under the clause's text and precedent.    Reinforcing the wisdom of these judges who have found that the ACA complied with the Origination Clause, it is important to note that at the time the ACA was making its way through Congress, no blue-slip objection was made on Origination Clause grounds in the House, despite vocal and vigorous opposition by many critics of the bill, some of whom are here today, on numerous other grounds.    The fact that no Member of the House filed a blue slip on the Origination Clause ground is not constitutionally dispositive of the issue, but it does confirm what the application of constitutional text and history and court precedent show, that the ACA was enacted consistent with the requirements of the Origination Clause.    As both a citizen and a constitutional lawyer, I applaud the Committee's interest in the vitality of the Origination Clause. I also would applaud a hearing on voting rights. The right to vote is a foundational right in our constitutional democracy, and I am grateful for the opportunity today to talk about the original meaning of this important provision of our Constitution. But the clause remains strong. Today the House remains as it has since the founding, the first and last word on all revenue bills, and it continues to defend its constitutional prerogatives through the blue-slip process when any Senate bills that might arise infringe on its Origination Clause authority.    The fact that no one filed a blue slip to try to stop the ACA on Origination Clause grounds is not because the clause has lost its constitutional teeth. It's because there's no constitutional defect in the act in the first place.    Thank you again, Mr. Chairman, and Members of the Subcommittee. I look forward to your questions and a great discussion today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentlelady.    And we will now recognize our third and final witness, Mr. Kamenar, and please turn on that microphone.</t>
   </si>
   <si>
-    <t>Kamenar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kamenar. Thank you, Chairman Franks, Chairman Goodlatte, Ranking Member Cohen, and Members of the Subcommittee. Thank you for inviting me here again this morning to testify on Origination Clause as I did in April 2014 along with Mr. Gaziano.    I want to particularly thank you, Mr. Chairman, for your continued leadership on this issue and your fidelity to your oath of office to support and defend the Constitution by reintroducing House Resolution 392 with many of your colleagues, expressing the sense of the House that the Affordable Care Act violates the Origination Clause, and by filing a friend-of-the-court brief with 45 of your colleagues in the court of appeals and the Supreme Court in the pending Sissel case. And I am very honored to have represented you along with my co-counsel, Joseph Schmitz, in that case, and we have submitted the brief and the dispositive law review article for the record.    And I, finally, applaud you for holding these important hearings to remind the Congress, the executive, the judiciary, and the American people, of the critical importance of the Origination Clause to the founding of this country and how it is in jeopardy to being reduced to nullity.    Now, the history of the clause, as we say in our brief and my statement, few clauses have such a rich and historical significance as the Origination Clause. With its origins in the Magna Carta of 1215 A.D., the principle of taxation only by the immediate Representatives of the people was so firmly entrenched in English tradition, and its implementation on the American side of the Atlantic was nearly universal in colonial and early State legislatures.    As the Chairman noted, without its guarantee, the 1787 convention and ensuing ratification debates, our Constitution would simply not exist, at least not in its present form, that the restriction of the Senate from originating taxes was the cornerstone of the accommodation of the Great Compromise, which satisfied the necessary number of States to ratify our Constitution.    Let me quickly address the first part of the clause, which says all bills for raising revenue must originate in the House. Does the Affordable Care Act raise revenue? That's an easy answer. Of course, it does. Yet in a remarkable decision, the majority panel the D.C. Circuit said that the bill which raises $500 billion in new taxes is not a revenue-raising bill because its primary purpose is to promote health care and not raise revenue. There is simply no logical or historical basis for this novel interpretation. As the four dissenting judges in Sissel noted, the act imposes numerous taxes to raise revenue, $473 billion in revenue over 10 years. It's difficult to say with a straight face that a bill raising $473 billion in revenue is not a bill for raising revenue.    Now, if the purpose test is correct, the Senate could easily circumvent, as Mr. Gaziano said, by attaching any kind of purpose to raising taxes, to protect the military, the environment, health care, and I note that even Mrs. Wydra and her clients in the Hotze case agree that this is a bill for raising revenue. So we all agree on the first clause. There's consensus here.    It's the second clause in terms of the Senate amendment power that we have some dispute. Now the history of that provision demonstrates that the scope of that amendment power is very limited and narrow, not the broad, sweeping power that allows the Senate here to take a 6-page bill that gives tax credits, go to the House where the Senate figuratively tears off the House bill number and pasted it on top of a 2,071-page ObamaCare bill, and said that this bill originated in the House.    To summarize our main points in our brief quickly, that the words ``originate'' and ``amendment'' and ``as on other bills'' must be interpreted how the amendment process was understood at the time of the ratification, not subsequent 19th- and 20th-century practice.    If you'll look at the history of this amendment, the Senate power was actually a compromise to prevent the House from tacking on or smuggling in nonrevenue, nongermane measures to a revenue bill which would preclude the Senate from amending that, not being able to strip out those nonrevenue measures. So they said: Okay, you could amend a revenue bill with respect to the provisions there.    Two, no one at the time thought the Senate could amend a House bill with a nongermane bill, let alone one that guts and replaces the House bill in its entirety.    Three, indeed the unicameral Continental Congress in 1781 made such amendments not in order. ``No new motion or proposition shall be admitted under color of amendment as a substitute for a proposition under debate until it is postponed or disagreed to.'' Note the phrase ``under color of amendment.'' And what's happened here is that under a color of amendment, the Senate in this case actually originated the revenue-raising bills.    Finally, James Madison, which Ms. Wydra talked--mentioned, the father of the Constitution, called the Senate's power ``a paltry right of the Senate to propose alterations to money bills.'' And the fact that no one issued a blue slip is constitutionally irrelevant and would not make any sense anyway since Chairman Pelosi at the time--Speaker Pelosi would not have brought that to the House floor.    Unfortunately, the dissenters in the Sissel case said that this gut-and-replace amendment was constitutional. Yet the three-judge panel, which said that this is not a bill for raising revenue said: No, that's not correct; that would render the power under the Origination Clause ``an empty formalism.''    In conclusion, I'd like to quote Justice Thurgood Marshall's citing Federalist 58. He said it best in the Munoz-Flores case, ``Provisions for the separation of powers within the legislative branch are thus no different in kind from provisions concerning relations between the branches of our government.'' Both sets of provisions safeguard liberty.    And if the Supreme Court on Friday does not review and later reverse the lower courts in Sissel, the original meaning of the cornerstone of the Great Compromise that allow the Constitution to be ratified would erode and unfortunately turn the Great Compromise into a great hoax. Thank you.</t>
   </si>
   <si>
@@ -145,9 +127,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    I thank the witnesses for your testimony. I point out that my good friend from Tennessee can sometimes be a bit of an ornery agitator and slide off topic from time to time. He'll be very interested in knowing that as I walked into my office on Monday, the first time I had set foot in there in 2016, I walked back to what I call our leg shop, and there I see there are two new faces. And they were two interns that I had not met before and actually wasn't aware that they were coming on board. So as I introduced myself to them, the first one--her name is Sydnee--and right away, I say, ``Where are you from?''    And she said, ``I was born in Canada.''    ``Born in Canada. Well, why are you here?''    ``Well, because I'm a born in Canada with an American citizen mother and a Canadian father, and I'm a dual citizen.''    The second I heard that, I picked up my iPhone, and I interviewed her. This is 2 minutes long, and I'd like to play it for you all so you can hear how simple this argument actually is.    [Audio recording played.]</t>
   </si>
   <si>
@@ -173,9 +152,6 @@
   </si>
   <si>
     <t>400651</t>
-  </si>
-  <si>
-    <t>Louie Gohmert</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Mr. Chairman, the gentleman from Tennessee is out of order.</t>
@@ -619,11 +595,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -643,13 +617,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -671,11 +643,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -695,13 +665,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -723,11 +691,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -747,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -775,11 +739,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -801,11 +763,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -825,13 +785,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -853,11 +811,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -877,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -905,11 +859,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -929,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -957,11 +907,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -981,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1009,11 +955,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1033,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1061,11 +1003,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1085,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1111,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1137,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1165,11 +1099,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1189,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1215,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1241,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1267,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1293,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1319,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1345,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1371,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1397,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1423,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1451,11 +1363,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1475,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1501,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1527,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1555,11 +1459,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1579,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1605,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1631,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1657,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1683,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1709,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1735,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1763,11 +1651,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98282.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98282.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order. Without objection, the Chair is authorized to declare a recess of the Committee at any time.    Thank you all for being here. The first clause of Article I, Section VII of the Constitution provides that, ``all bills for raising revenue shall originate in the House of Representatives, but the Senate may propose or concur with amendments as on other bills.'' This clause, commonly referred to as the Origination Clause, was designed by the Constitution's Framers to bring the power to tax closer to the people by giving control over initiating revenue legislation to their immediate Representatives, Members of the House of Representatives, who are elected every 2 years. The Framers' viewed the Origination Clause as a critical protection against government abuses and the creation of an aristocracy in America.    The power to tax is one of the most fundamental operations of a sovereign and one of the most dangerous to liberty. As Chief Justice John Marshall famously observed, the power to tax involves the power to destroy.    Simply put, the Origination Clause, the origination of revenue bills is not a small matter or marginal issue. Indeed, the need for a just tax system was the moral justification for our entire War of Independence. Its importance was expressed through the Virginia House of Burgesses, the Stamp Act Congress, and the First Continental Congress, all of whom petitioned the Crown and the Parliament in England for redress of their tax grievances.    It was with these realities in mind that the Origination Clause of our Constitution was written. The clause was, according to Massachusetts convention delegate Elbridge Gerry, ``the cornerstone of the accommodation'' of the Great Compromise of 1787. Thus, without the Origination Clause at the core of the Great Compromise, the Constitution as we know it today would not have come into being.    When the Framers wrote the Constitution, they knew it was vital that the power to raise and levy taxes originate in the people's House whose Members are closest to the electorate with 2-year terms rather than in the Senate whose Members sit unchallenged for 6-year terms. The Senate also does not proportionally represent the American population, and they already enjoy their own and unique and separate Senate powers granted to them in the Constitution.    As George Mason observed during the debate in the Constitutional Convention, ``Should the Senate have the power of giving away the people's money, they might soon forget the source from whence they received it. We might soon have an aristocracy.''    I have called today's hearing to examine the roots of the Origination Clause, its original meaning and purpose, and to see where the Origination Clause stands today after 225 years after the Great Compromise. I am concerned that over time the original meaning of the clause has been set aside, and the protections the clause affords to American taxpayers have been severely eroded. Instead of a robust check on the Federal Government over the people, I am troubled that the clause has become a mere formality in practice, a formality that may be dispensed with as easily as the Senate taking any bill that originated in the House and striking the entire text of the bill and replacing it with a ``bill for raising revenue no matter how nongermane the Senate's amendment is to the House original passed measure.'' A glaring example would be when the Senate struck everything but the bill number in the ACA legislation, which was a completely nongermane bill, and inserted the entire Affordable Care Act, which the Supreme Court later specifically designated as a tax since it raised 17 different taxes and was, in fact, the largest tax increase in the history of the Republic.    This sort of procedure blatantly ignores the Framers' intent, and if allowed to stand, it renders the Origination Clause of our Constitution a dead letter. We await with great concern the Supreme Court's decision as to whether they will allow that to happen as they ponder the review of the case on this topic, Sissel v. HHS.    Enforcing the Origination Clause is of critical concern to this House and especially this Constitution Subcommittee. If we as Members of the House who took a solemn oath to support and defend the Constitution, including its Origination Clause, fail to defend this right and responsibility as the immediate Representatives of the people and those most accountable to them, we dishonor and fundamentally abrogate our sworn oath to support and defend the Constitution of the United States from all enemies, foreign and domestic.    I thank the witnesses for their testimony and yield to the Ranking Member, Mr. Cohen, for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair.    Last night was a great opportunity to hear the President's last State of the Union speech. Unfortunately, it will be his last, but it was probably his greatest, inspiring us as to what we as Americans should be doing to move our country forward, inspire our citizens, and protect them against fears being generated and concerns. And he reiterated the importance of the Affordable Care Act and how much good it has done and how well-received it has been. But, once again, in this Committee, I have to play the Bill Murray role. It's Groundhog's Day early.    This hearing on The Original Meaning of the Origination Clause is a repeat of a hearing we had 2 years ago, almost 2 years ago. And we have the same majority witnesses before us, so they're getting their act down. That's good. They've got a second act. But even though they have a second act, in court, they're 0 for 3. In the NBA you'd be sent down to the developmental league, but, no, you're still here in the major leagues, even though you're 0 for 3.    It appears no Federal judge has so far considered the merits of this latest attack on the Patient Protection and Affordable Care Act. The Origination Clause, attorneys can argue about anything and everything. I'm an attorney, and you can hire me for either side, and I can charge. It's a great deal. But the reality is the Origination Clause ensures that the House--important--people's House, has the first say when it comes to bills raising revenue, and it's the Chamber most closest to the people. But at the same time, it's the same Chamber that it was when the Origination Clause was drafted because at that time, of course, the Senate was made up of folks that could get the votes of the State legislatures. And they were the States' guys, and they got picked by--sometimes it was the Governor; sometimes it might have been the Speaker of the House--but basically they weren't elected by the people, and they were chosen by just general assembly. Now they're elected. So it's kind of a different game.    We have an evolving Constitution, and we change and we don't go back to what somebody necessarily said because things change, but the Constitution reflects political compromises made by the Framers to ensure competing interests of various States and regions were addressed, even though they changed when we elected the Senate. Foremost among these was the compromise of Congress itself, and it gave the House a little more emphasis because it was the people's House, and the Senators were the boss' House, so to speak.    The Origination Clause reflects that balance, and it gave the House ``exclusive authority to originate bills'' for raising revenue. That clause gave the Senate broad leeway to, ``propose or concur with amendments as on other bills.'' That balance has worked for two centuries, and the House prerogative to originate all bills relating to revenue is established and respected. At the same time, the Senate's authority to amend is established and respected.    The majority witnesses, however, believe the Origination Clause is in peril, and particularly, they allege that Congress did an end run around the Origination Clause when it passed the Affordable Care Act and, in particular, its individual mandate and the related shared responsibility payment.    As will be made more evident during our discussion today, neither the facts nor the law support that assertion. Sometimes you argue the facts. Sometimes you argue the law. Now you just kind of argue politics. While the Affordable Care Act is arguably not even a bill for raising revenue within the Origination Clause's meaning, even if the clause applied to the act, it is clear the act met the clause's requirements.    The vehicle for enacting what ultimately became the Affordable Care Act was a tax bill that originated in the House which the Senate then amended by substituting language of the Affordable Care Act. In so doing, the Senate clearly acted within its authority within the Origination Clause to propose or concur with amendments to a House revenue bill as on other bills.    I question the need for today's hearing when lower courts have already spoken and when the Supreme Court may be about to speak on this issue. This hearing serves little purpose other than to once again attack the Affordable Care Act, which the majority party has tried to repeal on 62 occasions and constantly failed, and I do enjoy the little engine that could, but that's kind of what we're experiencing here in Congress.    The ACA has allowed almost 18 million Americans to get health insurance, including more than 236,000 Tennesseans who have received health insurance through ACA's changes, establishing the lowest rate of uninsured in 50 years. It ended discrimination by insurers against those with preexisting conditions, including women, allowed young adults under 26 to remain covered by their parents' insurance, benefitting 2.3 million Americans, encouraged better, more efficient delivery of quality health care, and ensured that most premium dollars are spent on health care, not profits.    I was proud to have voted for the Affordable Care Act and proud to vote 62 times not to go into the political demagoguery of trying to repeal what is one of our Nation's best efforts at joining the rest of the industrialized and civilized Nations in having health care for its people, saying that you have a right to exist and a right to live, and we should let every citizen have that opportunity.    President Obama's signature achievement is one I am proud to have voted for and will strongly defend against all attacks, including those today in a Committee which I wish we were hearing voting rights; I wish we were hearing civil rights; I wish we were hearing opportunities to extend rights to people rather than taking health care away from them. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    I appreciate your holding this hearing. You know, listening to the remarks of the gentleman from Tennessee, I've been reading the 17th Amendment to the United States Constitution, in fact, rereading the 17th Amendment to the United States Constitution, which provided for the direct election of United States Senators, and I can't see anything in this amendment whatsoever that says that the interpretation of the Origination Clause, which is provided for with direct, clear language in the United States Constitution, is in any way changed by the 17th Amendment. So our Constitution doesn't evolve. It gets amended by specific black-letter language, and that language doesn't provide for any such change. And I would hope that regardless of what position people take on the substantive issues that come before the Congress, including health care and the Affordable Care Act, that people would not attempt to change the meaning of the Constitution in order to accomplish their current policy goals. The ends should not justify the means of surrendering power from the House to the United States Senate. This document has not evolved that power from the House to the Senate, and this Committee and this Congress, this House of Representatives, should do everything in its power to make sure that it does not evolve away from the people's House so that in the future, when we address issues that are important to Members of the House representing their constituents on either side of the aisle, that we do not find ourselves saying: Well, it's okay now. Let things start off in the United States Senate instead of in the House, even though the Constitution clearly provides for that.    The Origination Clause was the result of a contentious dispute at the Constitutional Convention between big States and small States over the structure and powers of the Federal Government. The less populated small States feared that the Senate, where each State would have equal representation--still does--would have little control over raising revenue. Indeed, all versions of the Origination Clause that prohibited the Senate from amending revenue-raising bills were vigorously opposed by small State delegates. On the other hand, the Framers understood the importance of keeping the power to tax close to the people. This dispute was ultimately resolved by providing the Senate with the power to propose or concur with amendments as on other bills.    Unfortunately, the exact scope of the Senate's power to amend House bills under this clause remains ambiguous today. I hope this hearing will help clarify the extent of the Senate's authority to propose or concur with amendments on revenue bills in addition to examining the original meaning of the term bills for raising revenue.    Nevertheless, it's clear that Members of the House of Representatives have a duty to safeguard its constitutional prerogative in order to protect individual liberty from the dangers of concentrated power, and that duty is distinct from the Senate. In Federalist 58, Madison stated: The House of Representatives can not only refuse, but they alone can propose the supplies requisite for the support of government. They, in a word, hold the purse, that powerful instrument by which we behold in the history of the British Constitution an infant and humble representation of the people gradually enlarging the sphere of its activity and importance and finally reducing, as far as it seems to have wished, all the overgrown prerogatives of the other branches of the government. This power over the purse may, in fact, be regarded as the most complete and effectual weapon with which any constitution can arm the immediate representatives of the people for obtaining a redress of every grievance and for carrying into effect every just and salutary measure.    It's clear from Madison that the Origination Clause was designed to be one of the many important constitutional tools that the House uses against the overgrown prerogatives of other branches of government or even the Senate. Therefore, it is important that we do not disregard this duty, and I thank our witnesses for coming, and I look forward to their testimony.    I yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -82,18 +100,27 @@
     <t xml:space="preserve">    Mr. Franks. And, without objection, other Members' opening statements will be made part of the record as well.    So now I will introduce our witnesses. Our first witness is Todd Gaziano. Mr. Gaziano is executive director of the D.C. Center and senior fellow in constitutional law at the Pacific Legal Foundation. Prior to joining Pacific Legal Foundation, he served in the Justice Department's Office of Legal Counsel, was chief Subcommittee counsel in the U.S. House of Representatives, and was the founding director of Heritage Foundation's Center for Legal and Judicial Studies. From early 2008 to December 2013, he served as an appointee of the House of Representatives on the U.S. Commission on Civil Rights.    Our second witness is Elizabeth Wydra. Ms. Wydra is Chief Counsel of the Constitutional Accountability Center. She frequently participates in Supreme Court litigation and has argued several important cases in the Federal courts of appeals. She was previously a supervising attorney and teaching fellow at the Georgetown University Law Center Appellate Litigation Clinic. After graduating from law school, she clerked for Judge James R. Browning of the U.S. Court of Appeals for the Ninth Circuit.    Our final witness is Paul Kamenar. Mr. Kamenar is a Washington, D.C., attorney who provides legal counsel on legal, regulatory, and public policy matters, and guest lectures at the U.S. Naval Academy on constitutional and national security law. He is also a senior fellow of the Administrative Conference of the United States and a member of its Committee on Judicial Review. Mr. Kamenar was formerly a clinical professor of Law at George Mason University Law School, an adjunct professor at Georgetown University Law Center, and senior executive counsel at the Washington Legal Foundation.    Now each of the witnesses' written statements will be entered into the record in its entirety, and I would ask each witness to summarize his or her testimony in 5 minutes or less. To help you stay within that time, there's a timing light in front of you. The light switch will switch from green to yellow, indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired.    Before I recognize the witness, it is the tradition of the Subcommittee that they be sworn. So if you'll stand to be sworn, please.    Will you raise your right hand?    Do you solemnly swear that the testimony you are about to give will be the truth, the whole truth and nothing but the truth, so help you God?    You may be seated. Let the record reflect that the witnesses answered in the affirmative. I want to welcome all of you here, and I now recognize our first witness, Mr. Gaziano, and please turn on that microphone before you start here.</t>
   </si>
   <si>
+    <t>Gaziano</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gaziano. Chairman Franks, Chairman Goodlatte, and other distinguished Members of the Subcommittee, thank you for inviting me to testify again on this topic. I'm proud to be part of the Pacific Legal Foundation, which is representing Matt Sissel in his constitutional challenge to ObamaCare. This hearing and the Sissel case focus on the Framers' most important check on Congress' power to tax, which some today regard as an annoyance to be circumvented with clever tricks. There was similar disdain for the constitutional rules for legislation in the 1970's that led to over 161 House and Committee veto bills. Luckily, the Supreme Court understood that the legislative rules that were set forth in the Constitution protected individual rights and not just congressional prerogatives.    The Supreme Court in INS v. Chadha held that such finely wrought and exhaustively considered procedures for legislation could not be modified by modern designs and modern practices. The Court stressed that certain prescribed steps were still necessary to ``provide enduring checks on each branch and to protect the people from the improvident exercise of power.'' The Court then struck down all those 160 laws or provisions thereof to protect our individual liberty.    Well, I am delighted to be here today to testify on a similar protection of our individual liberty and to do so with Paul Kamenar, who I've worked with before, and with Elizabeth Wydra, who I believe has written about the best opposing view of anyone I've ever written. But as gifted a scholar as she is, even she can't defend the indefensible.    My friend does seem to concede in a written testimony that the D.C. Circuit's newly minted primary purpose test is invalid. The four-judge dissent in the D.C. Circuit warned that this new test would allow the Senate to originate taxes by simply characterizing them as having weightier nonrevenue purposes. For example, the Senate could enact and originate a gas tax in a bill that promotes the environment. The founding generation did not think they had erected an optional limitation so easily defeated with the right incantation.    Now turning to the text of the Origination Clause itself for its original meaning, it fails to satisfy the clause for two independent reasons. First, the Service Members Home Ownership Tax Act was not a bill for raising revenue within the meaning of the clause because it only cut taxes. Other provisions which increased penalties and accelerated filing fees to make it budget neutral were not taxes within the meaning. I will be glad to elaborate on that, but the result of that is that the Senate could not amend that bill at all with any additional taxes.    Second, and I think this goes more to Chairman Goodlatte's question, even if the House bill was a bill for raising revenue within the clause, the Senate healthcare bill was not a germane amendment and thus not constitutional. In Flint v. Stone Hill, the Supreme Court said that a Senate amendment must be germane to the revenue bill that originated in the House. It is irrelevant whether the Senate's practice allows any amendments on nonrevenue bills. There was a germaneness requirement in the Articles of Confederation Congress, and that helped form the original understanding of the Senate's limited role to amend a House revenue bill.    Second, the Senate's hotly disputed practice with regard to revenue bills in the late 19th century is almost completely worthless in determining the original public meaning of the clause, and it's especially ironic to rely on the Senate's views. It's like deferring to the foxes for the rules for raiding the henhouse.    And, finally, the Supreme Court's germaneness requirements, which have been followed by numerous courts, is absolutely required to properly give the Origination Clause any meaning whatsoever. If the Senate merely had to wait for a House revenue bill of some type and then could substitute a completely different omnibus tax code, which could happen several times a year, that would render the clause empty. Interpretations of clauses that render them meaningless are an insult to the framing generation and any rational basis of law.    I want to, since my time is limited, skip to one interpretation that Madison supposedly was quoted as saying that the Senate under the Origination Clause could gut and substitute a bill. That's kind of a minority view. It's very contrary to George Mason, most of the other Framers, and especially Story's interpretation that said that the Senate's amendment power would only be limited to a single line of text or a trifle to fix error. But even if Madison was right, that doesn't save ObamaCare because it might be constitutional in some cases to have a complete substitute language, but the bill still has to be--the Senate amendment still has to be germane to the House bill. And Madison didn't say otherwise, and no Framer said otherwise. If they had said otherwise, the Constitution would not have been ratified. There is simply no argument that the Senate's healthcare bill with its 20 historically large taxes is germane to the 6-page servicemembers housing bill. There is no constitutional precedent whatsoever for that position. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And thank you, sir.    I now recognize our second witness, Ms. Wydra, and make sure that microphone is on.</t>
   </si>
   <si>
+    <t>Wydra</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wydra. Good morning. Thank you, Chairman Franks, Ranking Member Cohen, and Members of the Subcommittee, for inviting me to testify today. It's a pleasure and an honor.    As the Chairman noted, the Origination Clause provides that all bills for raising revenue shall originate in the House of Representatives, but the Senate may propose or concur with amendments as on other bills. As the tax and history of the Constitution make clear, this provision was intended to strike a careful balance between the two Houses of Congress, giving the House the exclusive authority to propose legislation affecting the Nation's purse strings while ensuring that the Senate retained the right to amend such legislation, just as it could amend all other bills. This includes the strike-and-replace method of amendment used by the Senate in the ACA, as has been discussed, and more generally, since the founding. As Thomas Jefferson explained in his Manual of Parliamentary Procedure he wrote for the Senate in 1801, ``Amendments may be made so as to totally alter the nature of the proposition. A new bill may be engrafted by way of amendment on the words, be it enacted.'' Does the existence of the strike-and-replace amendment method of Senate amendment contemplated in the second half of the Origination Clause mean that the power given to the House in the first half of the Origination Clause to originate revenue bills has no meaning? Absolutely not. But don't take my word for it, even though I appreciate Mr. Gaziano's kind words.    Let's listen to James Madison. At Virginia's ratifying convention, he noted that even though critics said that the Senate could strike out every word of the bill except the word ``whereas'' or any other introductory word and might substitute words of their own, the clause nonetheless kept the Nation's purse strings in the hands of the House because the House was free to reject the Senate's amendments to revenue bills. And in the Federalist Papers, Madison emphasized the importance of the Origination Clause by noting that the House had the power to propose as well as refuse when it came to the power of the purse. The Origination Clause thus makes the House the first and the last word on all revenue bills.    Throughout history, the House has defended its constitutional prerogatives with vigor, mostly through the blue-slip process through which violations of the Origination Clause are raised and remedied.    My written testimony goes through in greater detail the original meaning of the Origination Clause, so for now, I will turn to the legal challenges claiming that the Affordable Care Act violates this clause. Every judge to have considered the merits of this claim on the merits has rejected it. As stated plainly by conservative superstar Judge Brett Kavanaugh of the D.C. Circuit Court of Appeals, the Affordable Care Act complied with the Origination Clause. As he went on to write: The act, in fact, originated in the House, as required by the clause in H.R. 3590, which was itself a bill to raise revenue, and although the original House bill was amended and its language replaced in the Senate, such Senate amendments are permissible under the clause's text and precedent.    Reinforcing the wisdom of these judges who have found that the ACA complied with the Origination Clause, it is important to note that at the time the ACA was making its way through Congress, no blue-slip objection was made on Origination Clause grounds in the House, despite vocal and vigorous opposition by many critics of the bill, some of whom are here today, on numerous other grounds.    The fact that no Member of the House filed a blue slip on the Origination Clause ground is not constitutionally dispositive of the issue, but it does confirm what the application of constitutional text and history and court precedent show, that the ACA was enacted consistent with the requirements of the Origination Clause.    As both a citizen and a constitutional lawyer, I applaud the Committee's interest in the vitality of the Origination Clause. I also would applaud a hearing on voting rights. The right to vote is a foundational right in our constitutional democracy, and I am grateful for the opportunity today to talk about the original meaning of this important provision of our Constitution. But the clause remains strong. Today the House remains as it has since the founding, the first and last word on all revenue bills, and it continues to defend its constitutional prerogatives through the blue-slip process when any Senate bills that might arise infringe on its Origination Clause authority.    The fact that no one filed a blue slip to try to stop the ACA on Origination Clause grounds is not because the clause has lost its constitutional teeth. It's because there's no constitutional defect in the act in the first place.    Thank you again, Mr. Chairman, and Members of the Subcommittee. I look forward to your questions and a great discussion today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentlelady.    And we will now recognize our third and final witness, Mr. Kamenar, and please turn on that microphone.</t>
   </si>
   <si>
+    <t>Kamenar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kamenar. Thank you, Chairman Franks, Chairman Goodlatte, Ranking Member Cohen, and Members of the Subcommittee. Thank you for inviting me here again this morning to testify on Origination Clause as I did in April 2014 along with Mr. Gaziano.    I want to particularly thank you, Mr. Chairman, for your continued leadership on this issue and your fidelity to your oath of office to support and defend the Constitution by reintroducing House Resolution 392 with many of your colleagues, expressing the sense of the House that the Affordable Care Act violates the Origination Clause, and by filing a friend-of-the-court brief with 45 of your colleagues in the court of appeals and the Supreme Court in the pending Sissel case. And I am very honored to have represented you along with my co-counsel, Joseph Schmitz, in that case, and we have submitted the brief and the dispositive law review article for the record.    And I, finally, applaud you for holding these important hearings to remind the Congress, the executive, the judiciary, and the American people, of the critical importance of the Origination Clause to the founding of this country and how it is in jeopardy to being reduced to nullity.    Now, the history of the clause, as we say in our brief and my statement, few clauses have such a rich and historical significance as the Origination Clause. With its origins in the Magna Carta of 1215 A.D., the principle of taxation only by the immediate Representatives of the people was so firmly entrenched in English tradition, and its implementation on the American side of the Atlantic was nearly universal in colonial and early State legislatures.    As the Chairman noted, without its guarantee, the 1787 convention and ensuing ratification debates, our Constitution would simply not exist, at least not in its present form, that the restriction of the Senate from originating taxes was the cornerstone of the accommodation of the Great Compromise, which satisfied the necessary number of States to ratify our Constitution.    Let me quickly address the first part of the clause, which says all bills for raising revenue must originate in the House. Does the Affordable Care Act raise revenue? That's an easy answer. Of course, it does. Yet in a remarkable decision, the majority panel the D.C. Circuit said that the bill which raises $500 billion in new taxes is not a revenue-raising bill because its primary purpose is to promote health care and not raise revenue. There is simply no logical or historical basis for this novel interpretation. As the four dissenting judges in Sissel noted, the act imposes numerous taxes to raise revenue, $473 billion in revenue over 10 years. It's difficult to say with a straight face that a bill raising $473 billion in revenue is not a bill for raising revenue.    Now, if the purpose test is correct, the Senate could easily circumvent, as Mr. Gaziano said, by attaching any kind of purpose to raising taxes, to protect the military, the environment, health care, and I note that even Mrs. Wydra and her clients in the Hotze case agree that this is a bill for raising revenue. So we all agree on the first clause. There's consensus here.    It's the second clause in terms of the Senate amendment power that we have some dispute. Now the history of that provision demonstrates that the scope of that amendment power is very limited and narrow, not the broad, sweeping power that allows the Senate here to take a 6-page bill that gives tax credits, go to the House where the Senate figuratively tears off the House bill number and pasted it on top of a 2,071-page ObamaCare bill, and said that this bill originated in the House.    To summarize our main points in our brief quickly, that the words ``originate'' and ``amendment'' and ``as on other bills'' must be interpreted how the amendment process was understood at the time of the ratification, not subsequent 19th- and 20th-century practice.    If you'll look at the history of this amendment, the Senate power was actually a compromise to prevent the House from tacking on or smuggling in nonrevenue, nongermane measures to a revenue bill which would preclude the Senate from amending that, not being able to strip out those nonrevenue measures. So they said: Okay, you could amend a revenue bill with respect to the provisions there.    Two, no one at the time thought the Senate could amend a House bill with a nongermane bill, let alone one that guts and replaces the House bill in its entirety.    Three, indeed the unicameral Continental Congress in 1781 made such amendments not in order. ``No new motion or proposition shall be admitted under color of amendment as a substitute for a proposition under debate until it is postponed or disagreed to.'' Note the phrase ``under color of amendment.'' And what's happened here is that under a color of amendment, the Senate in this case actually originated the revenue-raising bills.    Finally, James Madison, which Ms. Wydra talked--mentioned, the father of the Constitution, called the Senate's power ``a paltry right of the Senate to propose alterations to money bills.'' And the fact that no one issued a blue slip is constitutionally irrelevant and would not make any sense anyway since Chairman Pelosi at the time--Speaker Pelosi would not have brought that to the House floor.    Unfortunately, the dissenters in the Sissel case said that this gut-and-replace amendment was constitutional. Yet the three-judge panel, which said that this is not a bill for raising revenue said: No, that's not correct; that would render the power under the Origination Clause ``an empty formalism.''    In conclusion, I'd like to quote Justice Thurgood Marshall's citing Federalist 58. He said it best in the Munoz-Flores case, ``Provisions for the separation of powers within the legislative branch are thus no different in kind from provisions concerning relations between the branches of our government.'' Both sets of provisions safeguard liberty.    And if the Supreme Court on Friday does not review and later reverse the lower courts in Sissel, the original meaning of the cornerstone of the Great Compromise that allow the Constitution to be ratified would erode and unfortunately turn the Great Compromise into a great hoax. Thank you.</t>
   </si>
   <si>
@@ -127,6 +154,9 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    I thank the witnesses for your testimony. I point out that my good friend from Tennessee can sometimes be a bit of an ornery agitator and slide off topic from time to time. He'll be very interested in knowing that as I walked into my office on Monday, the first time I had set foot in there in 2016, I walked back to what I call our leg shop, and there I see there are two new faces. And they were two interns that I had not met before and actually wasn't aware that they were coming on board. So as I introduced myself to them, the first one--her name is Sydnee--and right away, I say, ``Where are you from?''    And she said, ``I was born in Canada.''    ``Born in Canada. Well, why are you here?''    ``Well, because I'm a born in Canada with an American citizen mother and a Canadian father, and I'm a dual citizen.''    The second I heard that, I picked up my iPhone, and I interviewed her. This is 2 minutes long, and I'd like to play it for you all so you can hear how simple this argument actually is.    [Audio recording played.]</t>
   </si>
   <si>
@@ -152,6 +182,12 @@
   </si>
   <si>
     <t>400651</t>
+  </si>
+  <si>
+    <t>Gohmert</t>
+  </si>
+  <si>
+    <t>Louie</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Mr. Chairman, the gentleman from Tennessee is out of order.</t>
@@ -545,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +589,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,1085 +611,1289 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
       <c r="H43" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98282.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98282.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Franks</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412236</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Cohen</t>
   </si>
   <si>
@@ -152,6 +161,9 @@
   </si>
   <si>
     <t>400220</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>King</t>
@@ -581,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,1286 +626,1400 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
